--- a/DTNPL/DTNPL TRS_20200618A.xlsx
+++ b/DTNPL/DTNPL TRS_20200618A.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O18005\Documents\DTNPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\DTNPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>TRS No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,36 @@
   </si>
   <si>
     <t>HY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정연조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC QM F/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAM 에 Program Loading을 위해서 Rom file 생성시 2MB 초과 image 사용시 write 오류 발생 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FPGA code 수정이 필요함. 
+- MRAM chip Select 핀 설정 오류 
+- 2MB * 4의 Memory로 구성되어 있으며, 각 2MB Block의 Chip Select을 개별적으로 control 해야 되지만 1개의 Chip Select Pin만 Control 하고 있어 발생이 됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정연조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Octect Second 표시 오류 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,25 +997,49 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="7" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44029</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44032</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>

--- a/DTNPL/DTNPL TRS_20200618A.xlsx
+++ b/DTNPL/DTNPL TRS_20200618A.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>TRS No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,90 @@
   </si>
   <si>
     <t xml:space="preserve">Octect Second 표시 오류 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC EGSE에서 처리 하는 것으로 종결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HY 동작 시험중 구현되어 있지 않은 사항이 발견됨. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 이력을 찾을 수 없으므로 신규 작업으로 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비효율적 Taks Creation과 호출 관계
+동작의 신뢰성 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBC QM F/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SBC F/W의 Task 구조 재 정의 
+Message Queue 구조 재 정의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Telemetry Command의 Sript1 처리 루틴 누락됨.
+과거에 실험 했던 이력은 있으나 현재 코드에는 반영되어 있지 않음. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backup S/W Image 필요성 제기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,8 +928,9 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,8 +941,8 @@
     <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="39.875" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="65.875" customWidth="1"/>
   </cols>
@@ -902,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -935,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -997,34 +1082,36 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>44029</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>32</v>
+      <c r="B7" s="10">
+        <v>44032</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1032,45 +1119,85 @@
         <v>44032</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44036</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44046</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1216,18 +1343,32 @@
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
+    <row r="22" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="9">
+        <v>44029</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
